--- a/Timekeeping/2024/12-24/TAM V 12-24.xlsx
+++ b/Timekeeping/2024/12-24/TAM V 12-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\12-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9591055-CBC0-4A05-93B2-CFEEBADE0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F9591055-CBC0-4A05-93B2-CFEEBADE0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57719383-B111-434F-B400-7148DEA549F4}"/>
   <bookViews>
-    <workbookView xWindow="13070" yWindow="3240" windowWidth="18750" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AJ$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1372,7 +1385,7 @@
   <dimension ref="A1:GH85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3456,7 +3469,7 @@
         <v>96</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>20</v>
